--- a/国际育儿 网站功能说明/国际育儿工作量统计.xlsx
+++ b/国际育儿 网站功能说明/国际育儿工作量统计.xlsx
@@ -4,19 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
-    <sheet name="WEB前台" sheetId="1" r:id="rId2"/>
-    <sheet name="后台管理" sheetId="2" r:id="rId3"/>
+    <sheet name="主站" sheetId="1" r:id="rId2"/>
+    <sheet name="童音电台" sheetId="6" r:id="rId3"/>
+    <sheet name="优微课" sheetId="5" r:id="rId4"/>
+    <sheet name="亲子悦" sheetId="4" r:id="rId5"/>
+    <sheet name="活动舞台" sheetId="8" r:id="rId6"/>
+    <sheet name="趣味玩" sheetId="9" r:id="rId7"/>
+    <sheet name="合家秀" sheetId="7" r:id="rId8"/>
+    <sheet name="后台管理" sheetId="2" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="138">
   <si>
     <t>一级模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -34,17 +40,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当前状态</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
     <t>Sheet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEB前台</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -266,10 +265,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>局部显示规则？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>童音电台</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -298,11 +293,287 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>主播列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有搜索结果页？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时（天/人）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签到规则？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝宝会员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家长会员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主播会员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有上传作品的页面？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员说明写到这里，很多字看不清。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>童音电台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注，留言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图文，音频，点赞，留言，分享</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐微课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8商5育</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频播放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享、点赞、打赏、留言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐趣播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲师团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲师列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品轮播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐讲师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>明星讲师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新讲师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲师详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧导航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热播新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐主播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关新闻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放详情页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图文，视频展示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主播风采及详情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主播信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮播主播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主播达人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主播新秀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣播达人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧趣播达人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣播新秀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最热趣播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关趣播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新趣播</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐趣播达人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时（人/天）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>童音电台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>优微课</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主播列表</t>
+    <t>亲子悦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动舞台</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣味玩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合家秀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -425,9 +696,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,9 +708,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,7 +715,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -462,8 +735,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -798,52 +1074,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="WEB前台!A1" display="WEB前台"/>
-    <hyperlink ref="A3" location="后台管理!A1" display="后台管理"/>
+    <hyperlink ref="A2" location="主站!A1" display="主站"/>
+    <hyperlink ref="A9" location="后台管理!A1" display="后台管理"/>
+    <hyperlink ref="A3" location="童音电台!A1" display="童音电台"/>
+    <hyperlink ref="A4" location="优微课!A1" display="优微课"/>
+    <hyperlink ref="A5" location="亲子悦!A1" display="亲子悦"/>
+    <hyperlink ref="A6" location="活动舞台!A1" display="活动舞台"/>
+    <hyperlink ref="A7" location="趣味玩!A1" display="趣味玩"/>
+    <hyperlink ref="A8" location="合家秀!A1" display="合家秀"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -851,617 +1169,732 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="36.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="37.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="26.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18.75">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>53</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="12"/>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="12"/>
-      <c r="B4" s="3" t="s">
-        <v>44</v>
+      <c r="B4" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
-      <c r="E4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:7" ht="31.5" customHeight="1">
+      <c r="E4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="28.5">
       <c r="A5" s="12"/>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="31.5" customHeight="1">
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="12"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12"/>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12"/>
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" customHeight="1">
+      <c r="F8" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="12"/>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>30</v>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="12"/>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1">
+      <c r="E10" s="9"/>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="12"/>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="12"/>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="12"/>
       <c r="B13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="12"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12"/>
-      <c r="B15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>34</v>
+      <c r="B15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="12"/>
-      <c r="B16" s="3" t="s">
-        <v>35</v>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="12"/>
-      <c r="B17" s="3" t="s">
-        <v>36</v>
+      <c r="B17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="12"/>
-      <c r="B18" s="3" t="s">
-        <v>37</v>
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="12"/>
-      <c r="B19" s="3" t="s">
-        <v>38</v>
+      <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="12"/>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>40</v>
+      <c r="B20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+        <v>59</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="12"/>
-      <c r="B22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="12"/>
-      <c r="B23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="12"/>
-      <c r="B24" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="B24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="12"/>
-      <c r="B25" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="12"/>
-      <c r="B26" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="14"/>
+      <c r="B26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="12"/>
-      <c r="B28" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="A28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="7">
+        <v>2</v>
+      </c>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="12"/>
-      <c r="B29" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="7">
+        <v>2</v>
+      </c>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="12"/>
-      <c r="B30" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="12"/>
-      <c r="B31" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="12"/>
-      <c r="B32" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7">
+        <v>2</v>
+      </c>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="12"/>
-      <c r="B33" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7">
+        <v>2</v>
+      </c>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="6"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="6"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="6"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="6"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="6"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="A39" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="6"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="11"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="6"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="6"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="6"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="6"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="6"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="6"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="6"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="6"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="6"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="6"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="6"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="6"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="6"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="11"/>
-      <c r="B55" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="11"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="11"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="11"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="11"/>
-      <c r="B60" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="7">
+        <f>SUM(F2:F47)</f>
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="11"/>
-      <c r="B61" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="11"/>
-      <c r="B62" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="11"/>
-      <c r="B63" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="11"/>
-      <c r="B64" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="11"/>
-      <c r="B65" s="3" t="s">
-        <v>54</v>
-      </c>
+    <row r="49" spans="1:6">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="A54:A58"/>
+  <mergeCells count="12">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="A2:A20"/>
-    <mergeCell ref="A27:A33"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="F39:F45"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="A39:A45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1476,6 +1909,1119 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="28.375" customWidth="1"/>
+    <col min="6" max="6" width="27.375" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10">
+        <v>2</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10">
+        <v>5</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10">
+        <v>3</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11"/>
+      <c r="B8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:7" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1">
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="7">
+        <f>SUM(F2:F10)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:7" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:7" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:7" ht="13.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="36.125" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="6" max="6" width="32.125" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="11">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="11"/>
+      <c r="B4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="11"/>
+      <c r="B5" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10">
+        <v>7</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A11" s="11"/>
+      <c r="B11" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A12" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="11"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="11"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="11"/>
+      <c r="B18" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="11"/>
+      <c r="B19" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="11"/>
+      <c r="B20" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="11"/>
+      <c r="B21" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="11"/>
+      <c r="B22" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="11"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="11"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="11"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="11"/>
+      <c r="B26" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="11"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="F27" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="11"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="11"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="11"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="11"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="11"/>
+      <c r="B33" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="11"/>
+      <c r="B34" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="11"/>
+      <c r="B35" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="11"/>
+      <c r="B36" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="11"/>
+      <c r="B37" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="F37" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="11"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="11"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="F39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="11"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="11"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" s="10">
+        <f>SUM(F2:F42)</f>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B37:B41"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="12"/>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="12"/>
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57">
+      <c r="A5" s="12"/>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.5">
+      <c r="A6" s="12"/>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12"/>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="12"/>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12"/>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="12"/>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="12"/>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="12"/>
+      <c r="B12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="12"/>
+      <c r="B13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="12"/>
+      <c r="B15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="12"/>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="12"/>
+      <c r="B17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12"/>
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="12"/>
+      <c r="B19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="12"/>
+      <c r="B20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="12"/>
+      <c r="B22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="12"/>
+      <c r="B23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="12"/>
+      <c r="B24" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12"/>
+      <c r="B25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="12"/>
+      <c r="B26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="12"/>
+      <c r="B28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12"/>
+      <c r="B29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="12"/>
+      <c r="B30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="12"/>
+      <c r="B31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="12"/>
+      <c r="B32" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12"/>
+      <c r="B33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A33"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
